--- a/test_standard_house/StandardHouse.xlsx
+++ b/test_standard_house/StandardHouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\e7_inputdataconvert\test_standard_house\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E75875-764E-4C33-89D6-64B3A83A45CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB28FA5B-661B-437E-85BE-219A7D2530AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{F5424879-A740-43D3-8DC2-198A110A4933}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="274">
   <si>
     <t>{</t>
   </si>
@@ -1033,6 +1033,10 @@
   </si>
   <si>
     <t xml:space="preserve">                     "attachment_type": "none",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            "eta_value_input_method": "eta_d_value_directly",</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1059,12 +1063,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1081,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,6 +1102,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,11 +1627,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865DE2BE-180A-495E-B0E2-5F2C915B2943}">
-  <dimension ref="A1:A854"/>
+  <dimension ref="A1:A871"/>
   <sheetViews>
-    <sheetView topLeftCell="A830" workbookViewId="0">
-      <selection sqref="A1:A854"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3551,2351 +3562,2436 @@
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A386" s="1" t="s">
-        <v>60</v>
+      <c r="A386" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A400" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A406" s="1" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A408" s="1" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A411" s="1" t="s">
-        <v>89</v>
+      <c r="A411" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A412" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A414" s="1" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
-        <v>250</v>
+        <v>26</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A418" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A420" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A422" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A423" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A424" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A425" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A426" s="1" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A427" s="1" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A428" s="1" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A429" s="1" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A430" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A431" s="1" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A432" s="1" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A433" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A434" s="1" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A435" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A436" s="1" t="s">
-        <v>25</v>
+      <c r="A436" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A437" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A438" s="1" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A439" s="1" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A440" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A441" s="1" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A442" s="1" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A443" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A444" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A445" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A446" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A447" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A448" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A449" s="1" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A450" s="1" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A451" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A452" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A453" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A454" s="1" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A455" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A456" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A457" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A458" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A459" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A460" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A461" s="1" t="s">
-        <v>26</v>
+      <c r="A461" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A462" s="1" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A463" s="1" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A464" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A465" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A466" s="1" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A467" s="1" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A468" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A469" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A470" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A471" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A472" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A473" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A474" s="1" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A475" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A476" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A477" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A478" s="1" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A479" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A480" s="1" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A481" s="1" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A482" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A483" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A484" s="1" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A485" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A486" s="1" t="s">
-        <v>272</v>
+      <c r="A486" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A487" s="1" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A488" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A489" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A490" s="1" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A491" s="1" t="s">
-        <v>85</v>
+        <v>272</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A492" s="1" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A493" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A494" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A495" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A496" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A497" s="1" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A498" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A499" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A500" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A501" s="1" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A502" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A503" s="1" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A504" s="1" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A505" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A506" s="1" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A507" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A508" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A509" s="1" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A510" s="1" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A511" s="1" t="s">
-        <v>250</v>
+      <c r="A511" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A512" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A513" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A514" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A515" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A516" s="1" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A517" s="1" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A518" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A519" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A520" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A521" s="1" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A522" s="1" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A523" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A524" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A525" s="1" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A526" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A527" s="1" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A528" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A529" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A530" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A531" s="1" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A532" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A533" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A534" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A535" s="1" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A536" s="1" t="s">
-        <v>34</v>
+      <c r="A536" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A537" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A538" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A539" s="1" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A540" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A541" s="1" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A542" s="1" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A543" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A544" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A545" s="1" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A546" s="1" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A547" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A548" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A549" s="1" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A550" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A551" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A552" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A553" s="1" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A554" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A555" s="1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A556" s="1" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A557" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A558" s="1" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A559" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A560" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A561" s="1" t="s">
-        <v>94</v>
+      <c r="A561" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A562" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A563" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A564" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A565" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A566" s="1" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A567" s="1" t="s">
-        <v>9</v>
+        <v>250</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A568" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A569" s="1" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A570" s="1" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A571" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A572" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A573" s="1" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A574" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A575" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A576" s="1" t="s">
-        <v>254</v>
+        <v>68</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A577" s="1" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A578" s="1" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A579" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A580" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A581" s="1" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A582" s="1" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A583" s="1" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A584" s="1" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A585" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A586" s="1" t="s">
-        <v>79</v>
+      <c r="A586" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A587" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A588" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A589" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A590" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A591" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A592" s="1" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A593" s="1" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A594" s="1" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A595" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A596" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A597" s="1" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A598" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A599" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A600" s="1" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A601" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A602" s="1" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A603" s="1" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A604" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A605" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A606" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A607" s="1" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A608" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A609" s="1" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A610" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A611" s="1" t="s">
-        <v>85</v>
+      <c r="A611" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A612" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A613" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A614" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A615" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A616" s="1" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A617" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A618" s="1" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A619" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A620" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A621" s="1" t="s">
-        <v>253</v>
+        <v>85</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A622" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A623" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A624" s="1" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A625" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A626" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A627" s="1" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A628" s="1" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A629" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A630" s="1" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A631" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A632" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A633" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A634" s="1" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A635" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A636" s="1" t="s">
-        <v>35</v>
+      <c r="A636" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A637" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A638" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A639" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A640" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A641" s="1" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A642" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A643" s="1" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A644" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A645" s="1" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A646" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A647" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A648" s="1" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A649" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A650" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A651" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A652" s="1" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A653" s="1" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A654" s="1" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A655" s="1" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A656" s="1" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A657" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A658" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A659" s="1" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A660" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A661" s="1" t="s">
-        <v>27</v>
+      <c r="A661" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A662" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A663" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A664" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A665" s="1" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A666" s="1" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A667" s="1" t="s">
-        <v>86</v>
+        <v>250</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A668" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A669" s="1" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A670" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A671" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A672" s="1" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A673" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A674" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A675" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A676" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A677" s="1" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A678" s="1" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A679" s="1" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A680" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A681" s="1" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A682" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A683" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A684" s="1" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A685" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A686" s="1" t="s">
-        <v>28</v>
+      <c r="A686" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A687" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A688" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A689" s="1" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A690" s="1" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A691" s="1" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A692" s="1" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A693" s="1" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A694" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A695" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A696" s="1" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A697" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A698" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A699" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A700" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A701" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A702" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A703" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A704" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A705" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A706" s="1" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A707" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A708" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A709" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A710" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A711" s="1" t="s">
-        <v>9</v>
+      <c r="A711" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A712" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A713" s="1" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A714" s="1" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A715" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A716" s="1" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A717" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A718" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A719" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A720" s="1" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A721" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A722" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A723" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A724" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A725" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A726" s="1" t="s">
-        <v>272</v>
+        <v>74</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A727" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A728" s="1" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A729" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A730" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A731" s="1" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A732" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A733" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A734" s="1" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A735" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A736" s="1" t="s">
-        <v>75</v>
+      <c r="A736" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A737" s="1" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A738" s="1" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A739" s="1" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A740" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A741" s="1" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A742" s="1" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A743" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A744" s="1" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A745" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A746" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A747" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A748" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A749" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A750" s="1" t="s">
-        <v>272</v>
+        <v>9</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A751" s="1" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A752" s="1" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A753" s="1" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A754" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A755" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A756" s="1" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A757" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A758" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A759" s="1" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A760" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A761" s="1" t="s">
-        <v>234</v>
+      <c r="A761" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A762" s="1" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A763" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A764" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A765" s="1" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A766" s="1" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A767" s="1" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A768" s="1" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A769" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A770" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A771" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A772" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A773" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A774" s="1" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A775" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A776" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A777" s="1" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A778" s="1" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A779" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A780" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A781" s="1" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A782" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A783" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A784" s="1" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A785" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A786" s="1" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A787" s="1" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A788" s="1" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A789" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A790" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A791" s="1" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A792" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A793" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A794" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A795" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A796" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A797" s="1" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A798" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A799" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A800" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A801" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A802" s="1" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A803" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A804" s="1" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A805" s="1" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A806" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A807" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A808" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A809" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A810" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A811" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A812" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A813" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A814" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A815" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A816" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A817" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A818" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A819" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A820" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A821" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A822" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A823" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A824" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A825" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A826" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A827" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A811" s="1" t="str">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A828" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"length"&amp;CHAR(34)&amp;": "&amp;3.18-1.82&amp;","</f>
         <v xml:space="preserve">                "length": 1.36,</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A812" s="1" t="s">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A829" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A813" t="str">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A830" t="str">
         <f>"                    "&amp;CHAR(34)&amp;"psi_value"&amp;CHAR(34)&amp;": "&amp; ROUND(1.8-1.36*(0.4*1.25)^0.15,2)</f>
         <v xml:space="preserve">                    "psi_value": 0.57</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A814" s="1" t="s">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A831" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A815" s="1" t="s">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A832" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A816" s="1" t="s">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A833" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A817" s="1" t="s">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A834" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A818" s="1" t="s">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A835" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A819" s="1" t="s">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A836" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A820" s="1" t="s">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A837" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A821" s="1" t="s">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A838" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A822" t="str">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A839" t="str">
         <f>"                    "&amp;CHAR(34)&amp;"psi_value"&amp;CHAR(34)&amp;": "&amp; ROUND(1.8-1.36*(0.4*1.25)^0.15,2)</f>
         <v xml:space="preserve">                    "psi_value": 0.57</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A823" s="1" t="s">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A840" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A824" s="1" t="s">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A841" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A825" s="1" t="s">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A842" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A826" s="1" t="s">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A843" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A827" s="1" t="s">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A844" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A828" s="1" t="s">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A845" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A829" s="1" t="s">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A846" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A830" s="1" t="s">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A847" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A831" t="str">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A848" t="str">
         <f>"                    "&amp;CHAR(34)&amp;"psi_value"&amp;CHAR(34)&amp;": "&amp; ROUND(1.8-1.36*(0.4*0.536)^0.15,2)</f>
         <v xml:space="preserve">                    "psi_value": 0.72</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A832" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A833" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A834" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A835" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A836" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A837" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A838" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A839" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A840" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A841" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A842" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A843" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A844" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A845" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A846" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A847" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A848" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A849" s="1" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A850" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A851" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A852" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A853" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A854" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A855" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A856" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A857" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A858" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A859" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A860" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A861" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A862" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A863" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A864" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A865" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A866" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A867" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A868" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A869" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A870" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A871" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5908,10 +6004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA4116D-66E7-416C-A6BA-4D21A492D754}">
-  <dimension ref="A1:R1619"/>
+  <dimension ref="A1:R1636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6229,7 +6325,7 @@
         <v>46.370236386044155</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="Q9:R9" si="3">4*$O$8*R$8*K3^0.5-R$7</f>
+        <f t="shared" ref="R9" si="3">4*$O$8*R$8*K3^0.5-R$7</f>
         <v>37.945650816066326</v>
       </c>
     </row>
@@ -12673,2460 +12769,2545 @@
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1129" s="1" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1130" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1131" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1132" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1133" s="1" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1134" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1135" s="1" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1136" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1137" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1138" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1139" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1140" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1141" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1142" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1143" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1144" s="1" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1145" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1146" s="1" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1147" s="1" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1148" s="1" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1149" s="1" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1150" s="1" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1151" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1152" s="1" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1153" s="1" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1154" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1155" s="1" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1156" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1157" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1158" s="1" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1159" s="1" t="s">
-        <v>250</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1160" s="1" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1161" s="1" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1162" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1163" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1164" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1165" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1166" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1167" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1168" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1169" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1170" s="1" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1171" s="1" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1172" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1173" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1174" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1175" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1176" s="1" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1177" s="1" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1178" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1179" s="1" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1180" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1181" s="1" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1182" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1183" s="1" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1184" s="1" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1185" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1186" s="1" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1187" s="1" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1188" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1189" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1190" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1191" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1192" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1193" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1194" s="1" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1195" s="1" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1196" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1197" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1198" s="1" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1199" s="1" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1200" s="1" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1201" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1202" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1203" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1204" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1205" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1206" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1207" s="1" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1208" s="1" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1209" s="1" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1210" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1211" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1212" s="1" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1213" s="1" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1214" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1215" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1216" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1217" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1218" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1219" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1220" s="1" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1221" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1222" s="1" t="s">
-        <v>249</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1223" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1224" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1225" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1226" s="1" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1227" s="1" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1228" s="1" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1229" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1230" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1231" s="1" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1232" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1233" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1234" s="1" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1235" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1236" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1237" s="1" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1238" s="1" t="s">
-        <v>85</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1239" s="1" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1240" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1241" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1242" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1243" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1244" s="1" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1245" s="1" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1246" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1247" s="1" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1248" s="1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1249" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1250" s="1" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1251" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1252" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1253" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1254" s="1" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1255" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1256" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1257" s="1" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1258" s="1" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1259" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1260" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1261" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1262" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1263" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1264" s="1" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1265" s="1" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1266" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1267" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1268" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1269" s="1" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1270" s="1" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1271" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1272" s="1" t="s">
-        <v>247</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1273" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1274" s="1" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1275" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1276" s="1" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1277" s="1" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1278" s="1" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1279" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1280" s="1" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1281" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1282" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1283" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1284" s="1" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1285" s="1" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1286" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1287" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1288" s="1" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1289" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1290" s="1" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1291" s="1" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1292" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1293" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1294" s="1" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1295" s="1" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1296" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1297" s="1" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1298" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1299" s="1" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1300" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1301" s="1" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1302" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1303" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1304" s="1" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1305" s="1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1306" s="1" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1307" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1308" s="1" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1309" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1310" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1311" s="1" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1312" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1313" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1314" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1315" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1316" s="1" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1317" s="1" t="s">
-        <v>9</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1318" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1319" s="1" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1320" s="1" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1321" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1322" s="1" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1323" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1324" s="1" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1325" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1326" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1327" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1328" s="1" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1329" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1330" s="1" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1331" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1332" s="1" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1333" s="1" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1334" s="1" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1335" s="1" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1336" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1337" s="1" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1338" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1339" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1340" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1341" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1342" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1343" s="1" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1344" s="1" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1345" s="1" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1346" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1347" s="1" t="s">
-        <v>247</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1348" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1349" s="1" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1350" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1351" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1352" s="1" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1353" s="1" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1354" s="1" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1355" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1356" s="1" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1357" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1358" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1359" s="1" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1360" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1361" s="1" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1362" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1363" s="1" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1364" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1365" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1366" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1367" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1368" s="1" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1369" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1370" s="1" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1371" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1372" s="1" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1373" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1374" s="1" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1375" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1376" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1377" s="1" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1378" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1379" s="1" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1380" s="1" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1381" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1382" s="1" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1383" s="1" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1384" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1385" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1386" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1387" s="1" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1388" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1389" s="1" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1390" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1391" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1392" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1393" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1394" s="1" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1395" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1396" s="1" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1397" s="1" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1398" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1399" s="1" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1400" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1401" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1402" s="1" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1403" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1404" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1405" s="1" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1406" s="1" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1407" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1408" s="1" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1409" s="1" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1410" s="1" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1411" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1412" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1413" s="1" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1414" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1415" s="1" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1416" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1417" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1418" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1419" s="1" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1420" s="1" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1421" s="1" t="s">
-        <v>86</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1422" s="1" t="s">
-        <v>248</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1423" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1424" s="1" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1425" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1426" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1427" s="1" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1428" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1429" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1430" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1431" s="1" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1432" s="1" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1433" s="1" t="s">
-        <v>272</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1434" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1435" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1436" s="1" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1437" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1438" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1439" s="1" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1440" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1441" s="1" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1442" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1443" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1444" s="1" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1445" s="1" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1446" s="1" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1447" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1448" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1449" s="1" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1450" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1451" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1452" s="1" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1453" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1454" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1455" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1456" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1457" s="1" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1458" s="1" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1459" s="1" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1460" s="1" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1461" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1462" s="1" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1463" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1464" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1465" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1466" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1467" s="1" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1468" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1469" s="1" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1470" s="1" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1471" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1472" s="1" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1473" s="1" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1474" s="1" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1475" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1476" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1477" s="1" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1478" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1479" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1480" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1481" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1482" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1483" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1484" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1485" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1486" s="1" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1487" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1488" s="1" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1489" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1490" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1491" s="1" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1492" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1493" s="1" t="s">
-        <v>75</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1494" s="1" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1495" s="1" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1496" s="1" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1497" s="1" t="s">
-        <v>247</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1498" s="1" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1499" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1500" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1501" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1502" s="1" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1503" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1504" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1505" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1506" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1507" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1508" s="1" t="s">
-        <v>272</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1509" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1510" s="1" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1511" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1512" s="1" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1513" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1514" s="1" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1515" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1516" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1517" s="1" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1518" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1519" s="1" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1520" s="1" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1521" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1522" s="1" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1523" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1524" s="1" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1525" s="1" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1526" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1527" s="1" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1528" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1529" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1530" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1531" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1532" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1533" s="1" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1534" s="1" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1535" s="1" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1536" s="1" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1537" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1538" s="1" t="s">
-        <v>78</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1539" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1540" s="1" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1541" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1542" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1543" s="1" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1544" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1545" s="1" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1546" s="1" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1547" s="1" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1548" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1549" s="1" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1550" s="1" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1551" s="1" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1552" s="1" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1553" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1554" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1555" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1556" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1556" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1557" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1557" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1558" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1558" s="1" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1559" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1560" s="1" t="s">
-        <v>247</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1561" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1562" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1563" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1563" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1564" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1564" s="1" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1565" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1565" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1566" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1566" s="1" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1567" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1568" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1569" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1569" s="1" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1570" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1570" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1571" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1572" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1573" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1574" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1575" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1576" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1577" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1578" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1579" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1580" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1581" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1582" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1583" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1584" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1585" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1586" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1587" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1588" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="1572" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1572" s="1" t="str">
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1589" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"length"&amp;CHAR(34)&amp;": "&amp;3.18-1.82&amp;","</f>
         <v xml:space="preserve">                "length": 1.36,</v>
       </c>
     </row>
-    <row r="1573" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1573" s="1" t="s">
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1590" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="1574" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1574" s="1" t="s">
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1591" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1575" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1575" s="1" t="str">
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1592" s="1" t="str">
         <f>"                    "&amp;CHAR(34)&amp;"psi_value"&amp;CHAR(34)&amp;": "&amp; ROUND(1.8-1.36*(0.4*1.25)^0.15,2)</f>
         <v xml:space="preserve">                    "psi_value": 0.57</v>
       </c>
     </row>
-    <row r="1576" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1576" s="1" t="s">
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1593" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1577" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1577" s="1" t="s">
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1594" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1578" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1578" s="1" t="s">
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1595" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="1579" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1579" s="1" t="s">
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1596" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="1580" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1580" s="1" t="s">
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1597" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="1581" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1581" s="1" t="s">
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1598" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="1582" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1582" s="1" t="s">
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1599" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="1583" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1583" s="1" t="s">
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1600" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="1584" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1584" s="1" t="s">
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1601" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1585" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1585" s="1" t="str">
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1602" s="1" t="str">
         <f>"                    "&amp;CHAR(34)&amp;"psi_value"&amp;CHAR(34)&amp;": "&amp; ROUND(1.8-1.36*(0.4*1.25)^0.15,2)</f>
         <v xml:space="preserve">                    "psi_value": 0.57</v>
       </c>
     </row>
-    <row r="1586" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1586" s="1" t="s">
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1603" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1587" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1587" s="1" t="s">
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1604" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1588" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1588" s="1" t="s">
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1605" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="1589" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1589" s="1" t="s">
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1606" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="1590" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1590" s="1" t="s">
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1607" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="1591" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1591" s="1" t="s">
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1608" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="1592" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1592" s="1" t="s">
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1609" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="1593" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1593" s="1" t="s">
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1610" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="1594" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1594" s="1" t="s">
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1611" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1595" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1595" s="1" t="str">
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1612" s="1" t="str">
         <f>"                    "&amp;CHAR(34)&amp;"psi_value"&amp;CHAR(34)&amp;": "&amp; ROUND(1.8-1.36*(0.4*0.536)^0.15,2)</f>
         <v xml:space="preserve">                    "psi_value": 0.72</v>
       </c>
     </row>
-    <row r="1596" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1596" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1597" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1598" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1599" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1600" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1601" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1602" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1603" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1604" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1605" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1606" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1607" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1608" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1609" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1610" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1611" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1612" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1613" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1614" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1614" s="1" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1615" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1615" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1616" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1616" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1617" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1618" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1618" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1619" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1619" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1620" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1621" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1622" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1623" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1624" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1625" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1626" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1627" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1628" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1629" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1630" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1631" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1632" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1633" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1634" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1635" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1636" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/test_standard_house/StandardHouse.xlsx
+++ b/test_standard_house/StandardHouse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\e7_inputdataconvert\test_standard_house\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E803AB39-EE98-40CE-8FED-030D12C3EF90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B2F22-3431-4F1B-852D-854BBD33A7FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{F5424879-A740-43D3-8DC2-198A110A4933}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="283">
   <si>
     <t>{</t>
   </si>
@@ -1002,9 +1002,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                "external_surface_type": "not_outdoor",</t>
-  </si>
-  <si>
     <t xml:space="preserve">                "general_part_type": "wall",</t>
   </si>
   <si>
@@ -1068,6 +1065,13 @@
   </si>
   <si>
     <t xml:space="preserve">                    "volumetric_specific_heat": 3300.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "external_surface_type": "not_outdoor",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "external_surface_type": "not_outdoor",</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1455,9 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88410C5B-B7C3-4CB6-A03D-E2FDAD1715E2}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:A38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1661,9 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865DE2BE-180A-495E-B0E2-5F2C915B2943}">
   <dimension ref="A1:A880"/>
   <sheetViews>
-    <sheetView topLeftCell="A856" workbookViewId="0">
-      <selection sqref="A1:A880"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
@@ -1732,7 +1732,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
@@ -1742,37 +1742,37 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
@@ -2082,7 +2082,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
@@ -2092,37 +2092,37 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
@@ -2432,7 +2432,7 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
@@ -2442,37 +2442,37 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
@@ -2782,7 +2782,7 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.45">
@@ -2792,37 +2792,37 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>239</v>
+        <v>117</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
@@ -3132,7 +3132,7 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
@@ -3142,32 +3142,32 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.45">
@@ -3267,7 +3267,7 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.45">
@@ -3302,7 +3302,7 @@
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.45">
@@ -3597,7 +3597,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A386" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.45">
@@ -3622,7 +3622,7 @@
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.45">
@@ -3722,7 +3722,7 @@
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A411" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.45">
@@ -3747,7 +3747,7 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.45">
@@ -3847,7 +3847,7 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A436" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.45">
@@ -3872,7 +3872,7 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A441" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.45">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A461" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.45">
@@ -3997,7 +3997,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A466" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.45">
@@ -4097,7 +4097,7 @@
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A486" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.45">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A491" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.45">
@@ -4222,7 +4222,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A511" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.45">
@@ -4247,7 +4247,7 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A516" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.45">
@@ -4347,7 +4347,7 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A536" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.45">
@@ -4372,7 +4372,7 @@
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A541" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.45">
@@ -4472,7 +4472,7 @@
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A561" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.45">
@@ -4497,7 +4497,7 @@
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A566" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.45">
@@ -4597,7 +4597,7 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A586" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.45">
@@ -4622,7 +4622,7 @@
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A591" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.45">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A611" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.45">
@@ -4747,7 +4747,7 @@
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A616" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.45">
@@ -4847,7 +4847,7 @@
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A636" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.45">
@@ -4872,7 +4872,7 @@
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A641" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.45">
@@ -4972,7 +4972,7 @@
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A661" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.45">
@@ -4997,7 +4997,7 @@
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A666" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.45">
@@ -5097,7 +5097,7 @@
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A686" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.45">
@@ -5122,7 +5122,7 @@
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A691" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.45">
@@ -5222,7 +5222,7 @@
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A711" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.45">
@@ -5247,7 +5247,7 @@
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A716" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.45">
@@ -5347,7 +5347,7 @@
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A736" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.45">
@@ -5372,7 +5372,7 @@
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A741" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.45">
@@ -5472,7 +5472,7 @@
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A761" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.45">
@@ -5497,7 +5497,7 @@
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A766" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.45">
@@ -5597,7 +5597,7 @@
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A786" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.45">
@@ -5622,7 +5622,7 @@
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A791" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.45">
@@ -5951,47 +5951,47 @@
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A856" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A857" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A858" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A859" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A860" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A861" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A862" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A863" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A864" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.45">
@@ -6368,7 +6368,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>161</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>184</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>186</v>
@@ -6549,8 +6549,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>242</v>
+      <c r="A16" s="1" t="str">
+        <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($I$4,"0.00")&amp;","</f>
+        <v xml:space="preserve">                "area": 3.84,</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>187</v>
@@ -6570,9 +6571,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="str">
-        <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($I$4,"0.00")&amp;","</f>
-        <v xml:space="preserve">                "area": 3.84,</v>
+      <c r="A17" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>188</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>189</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>190</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>191</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>192</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>193</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -7350,8 +7350,9 @@
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>242</v>
+      <c r="A87" s="1" t="str">
+        <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($J$4,"0.00")&amp;","</f>
+        <v xml:space="preserve">                "area": 2.18,</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -7359,9 +7360,8 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="str">
-        <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($J$4,"0.00")&amp;","</f>
-        <v xml:space="preserve">                "area": 2.18,</v>
+      <c r="A88" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
@@ -7970,43 +7970,43 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A159" s="1" t="str">
+      <c r="A158" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($K$4,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 38.62,</v>
       </c>
     </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
@@ -8316,7 +8316,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
@@ -8326,43 +8326,43 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A229" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A230" s="1" t="str">
+      <c r="A229" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($I$5,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 16.80,</v>
       </c>
     </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.45">
@@ -8672,7 +8672,7 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
@@ -8682,43 +8682,43 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A300" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A301" s="1" t="str">
+      <c r="A300" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($J$5,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 8.08,</v>
       </c>
     </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.45">
@@ -9028,7 +9028,7 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.45">
@@ -9038,43 +9038,43 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A371" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A372" s="1" t="str">
+      <c r="A371" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($K$5,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 4.37,</v>
       </c>
     </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A372" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.45">
@@ -9384,7 +9384,7 @@
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A439" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.45">
@@ -9394,43 +9394,43 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A441" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A442" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A443" s="1" t="str">
+      <c r="A442" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($I$6,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 10.22,</v>
       </c>
     </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A443" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A444" s="1" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A445" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A446" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A447" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A448" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.45">
@@ -9740,7 +9740,7 @@
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A510" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.45">
@@ -9750,43 +9750,43 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A512" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A513" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A514" s="1" t="str">
+      <c r="A513" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($J$6,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 23.00,</v>
       </c>
     </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A514" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A515" s="1" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A516" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A517" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A518" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A519" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.45">
@@ -10096,7 +10096,7 @@
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A581" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.45">
@@ -10106,43 +10106,43 @@
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A583" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A584" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A585" s="1" t="str">
+      <c r="A584" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($K$6,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 0.00,</v>
       </c>
     </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A585" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A586" s="1" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A587" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A588" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A589" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A590" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.45">
@@ -10452,7 +10452,7 @@
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A652" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.45">
@@ -10462,43 +10462,43 @@
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A654" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A655" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A656" s="1" t="str">
+      <c r="A655" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($I$7,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 0.00,</v>
       </c>
     </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A656" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A657" s="1" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A658" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A659" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A660" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A661" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.45">
@@ -10808,7 +10808,7 @@
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A723" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.45">
@@ -10818,43 +10818,43 @@
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A725" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A726" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A727" s="1" t="str">
+      <c r="A726" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($J$7,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 18.31,</v>
       </c>
     </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A727" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A728" s="1" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A729" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A730" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A731" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A732" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.45">
@@ -11164,7 +11164,7 @@
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A794" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.45">
@@ -11174,43 +11174,43 @@
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A796" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A797" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A798" s="1" t="str">
+      <c r="A797" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($K$7,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 10.78,</v>
       </c>
     </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A798" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A799" s="1" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A800" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A801" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A802" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A803" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.45">
@@ -11520,7 +11520,7 @@
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A865" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.45">
@@ -11530,38 +11530,38 @@
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A867" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A868" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A869" s="1" t="str">
+      <c r="A868" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($I$8,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 4.14,</v>
       </c>
     </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A869" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A870" s="1" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A871" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A872" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A873" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.45">
@@ -11661,7 +11661,7 @@
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A893" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.45">
@@ -11671,38 +11671,38 @@
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A895" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A896" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A897" s="1" t="str">
+      <c r="A896" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($J$8,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 38.09,</v>
       </c>
     </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A897" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A898" s="1" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A899" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A900" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A901" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.45">
@@ -11802,7 +11802,7 @@
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A921" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.45">
@@ -11812,38 +11812,38 @@
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A923" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A924" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A925" s="1" t="str">
+      <c r="A924" s="1" t="str">
         <f>"                "&amp;CHAR(34)&amp;"area"&amp;CHAR(34)&amp;": "&amp;TEXT($K$8,"0.00")&amp;","</f>
         <v xml:space="preserve">                "area": 25.69,</v>
       </c>
     </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A925" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A926" s="1" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A927" s="1" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A928" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A929" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.45">
@@ -11943,7 +11943,7 @@
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A949" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.45">
@@ -11984,7 +11984,7 @@
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A957" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.45">
@@ -12224,7 +12224,7 @@
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1005" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.45">
@@ -12265,7 +12265,7 @@
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1013" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.45">
@@ -12505,7 +12505,7 @@
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1061" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.45">
@@ -12546,7 +12546,7 @@
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1069" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.45">
@@ -12846,7 +12846,7 @@
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1129" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.45">
@@ -12976,7 +12976,7 @@
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1155" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.45">
@@ -13106,7 +13106,7 @@
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1181" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.45">
@@ -13131,7 +13131,7 @@
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1186" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.45">
@@ -13236,7 +13236,7 @@
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1207" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.45">
@@ -13261,7 +13261,7 @@
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1212" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.45">
@@ -13366,7 +13366,7 @@
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1233" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.45">
@@ -13391,7 +13391,7 @@
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1238" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.45">
@@ -13496,7 +13496,7 @@
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1259" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.45">
@@ -13521,7 +13521,7 @@
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1264" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.45">
@@ -13626,7 +13626,7 @@
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1285" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.45">
@@ -13651,7 +13651,7 @@
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1290" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.45">
@@ -13756,7 +13756,7 @@
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1311" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.45">
@@ -13781,7 +13781,7 @@
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1316" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.45">
@@ -13886,7 +13886,7 @@
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1337" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.45">
@@ -13911,7 +13911,7 @@
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1342" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.45">
@@ -14016,7 +14016,7 @@
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1363" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.45">
@@ -14041,7 +14041,7 @@
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1368" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.45">
@@ -14146,7 +14146,7 @@
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1389" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.45">
@@ -14171,7 +14171,7 @@
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1394" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.45">
@@ -14276,7 +14276,7 @@
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1415" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.45">
@@ -14301,7 +14301,7 @@
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1420" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.45">
@@ -14406,7 +14406,7 @@
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1441" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.45">
@@ -14431,7 +14431,7 @@
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1446" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.45">
@@ -14536,7 +14536,7 @@
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1467" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.45">
@@ -14561,7 +14561,7 @@
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1472" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.45">
@@ -14666,7 +14666,7 @@
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1493" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.45">
@@ -14691,7 +14691,7 @@
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1498" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.45">
@@ -14796,7 +14796,7 @@
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1519" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.45">
@@ -14821,7 +14821,7 @@
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1524" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.45">
@@ -14926,7 +14926,7 @@
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1545" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.45">
@@ -15310,47 +15310,47 @@
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1621" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1622" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1623" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1624" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1625" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1626" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1627" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1628" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1628" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1629" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1629" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.45">
